--- a/env/06_工作周报/03_非结构网格组/2021-1014-1020/通用网格生成软件个人工作周报-2021-1014-1020-李四.xlsx
+++ b/env/06_工作周报/03_非结构网格组/2021-1014-1020/通用网格生成软件个人工作周报-2021-1014-1020-李四.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carol/Desktop/Repo/06_工作周报/01_几何组/2021-1014-1020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C7F8F-8E7A-0449-A240-6F6D8E9F1C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A55D155-0A9C-FB4A-A9CC-AFA559327063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940" xr2:uid="{DD922925-23D6-8D40-A958-A0E5068F2725}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940" activeTab="1" xr2:uid="{90A61E96-365A-824C-9B95-B2E284D85A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作任务项" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="统计-1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,37 +38,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期（年/月/日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作任务项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作量（小时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx模块详细设计文档编写</t>
+  </si>
+  <si>
+    <t>重构线</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>xx功能底层代码开发</t>
+  </si>
+  <si>
+    <t>任务线</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>通过选择整个模型创建xx开发</t>
+  </si>
+  <si>
+    <t>通过选择曲面创建xx开发</t>
+  </si>
+  <si>
+    <t>xx功能：功能自测</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>xx会议</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>列标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>求和项:工作量（小时）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,13 +126,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,11 +163,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -126,6 +203,1744 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[通用网格生成软件个人工作周报-2021-1014-1020-一二三.xlsx]统计-1!数据透视表1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-1'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021/10/14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>xx功能：功能自测</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xx功能底层代码开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xx会议</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xx模块详细设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>通过选择曲面创建xx开发</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>通过选择整个模型创建xx开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-1'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12B1-7A49-B0F5-C4DC4E0A7738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-1'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021/10/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>xx功能：功能自测</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xx功能底层代码开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xx会议</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xx模块详细设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>通过选择曲面创建xx开发</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>通过选择整个模型创建xx开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-1'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12B1-7A49-B0F5-C4DC4E0A7738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-1'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021/10/18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>xx功能：功能自测</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xx功能底层代码开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xx会议</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xx模块详细设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>通过选择曲面创建xx开发</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>通过选择整个模型创建xx开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-1'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-12B1-7A49-B0F5-C4DC4E0A7738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-1'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021/10/19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>xx功能：功能自测</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xx功能底层代码开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xx会议</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xx模块详细设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>通过选择曲面创建xx开发</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>通过选择整个模型创建xx开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-1'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-12B1-7A49-B0F5-C4DC4E0A7738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-1'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021/10/20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>xx功能：功能自测</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xx功能底层代码开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xx会议</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xx模块详细设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>通过选择曲面创建xx开发</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>通过选择整个模型创建xx开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-1'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-12B1-7A49-B0F5-C4DC4E0A7738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1528523232"/>
+        <c:axId val="1528524880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1528523232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528524880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1528524880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528523232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C0B558-A7A5-3A4D-A277-B501F695A10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="656" refreshedDate="44489.579928703701" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="9" xr:uid="{D3E5E52C-CF05-8B46-B447-40C9E8E91082}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F10" sheet="工作任务项"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="序号" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+    <cacheField name="日期（年/月/日）" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-14T00:00:00" maxDate="2021-10-21T00:00:00" count="5">
+        <d v="2021-10-14T00:00:00"/>
+        <d v="2021-10-15T00:00:00"/>
+        <d v="2021-10-18T00:00:00"/>
+        <d v="2021-10-19T00:00:00"/>
+        <d v="2021-10-20T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="工作任务项" numFmtId="0">
+      <sharedItems count="6">
+        <s v="xx模块详细设计文档编写"/>
+        <s v="xx功能底层代码开发"/>
+        <s v="通过选择整个模型创建xx开发"/>
+        <s v="通过选择曲面创建xx开发"/>
+        <s v="xx功能：功能自测"/>
+        <s v="xx会议"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="项目线" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="类型" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="工作量（小时）" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="7" count="5">
+        <n v="4"/>
+        <n v="3"/>
+        <n v="7"/>
+        <n v="5"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="重构线"/>
+    <s v="设计"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="任务线"/>
+    <s v="开发"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="任务线"/>
+    <s v="开发"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="任务线"/>
+    <s v="开发"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="任务线"/>
+    <s v="开发"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="任务线"/>
+    <s v="测试"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="任务线"/>
+    <s v="测试"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="任务线"/>
+    <s v="测试"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <x v="5"/>
+    <s v="其他"/>
+    <s v="其他"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2B682DC-F80F-AA4E-B2C3-47D8D422A6DB}" name="数据透视表1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:工作量（小时）" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,97 +2239,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A178C290-8CC2-104C-869C-F8A477E6E1D9}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DF4A1-7EC9-C546-B6E4-628DBFC0057A}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>44483</v>
       </c>
-      <c r="C2">
-        <v>1213</v>
-      </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2">
-        <v>41</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>44483</v>
       </c>
-      <c r="C3">
-        <v>3123</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>33</v>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44483</v>
-      </c>
-      <c r="C4">
-        <v>4124</v>
-      </c>
-      <c r="D4">
-        <v>41</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>44484</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44487</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44487</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44488</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44489</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44489</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44489</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -524,25 +2455,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82142AC-1DAD-0A45-9531-1E38F6531934}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66B518D-A26B-6D4F-8AE7-C0C415C5D0DF}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44483</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44484</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44487</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44488</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44489</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>2</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>